--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399383.5293367549</v>
+        <v>450275.6437737594</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.059513934</v>
+        <v>8636206.831769032</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8673692.685730744</v>
+        <v>8627903.240604853</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165.1725371760944</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="3">
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>52.04897529147635</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>146.9019614358876</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.1725371760947</v>
+        <v>166.7824266983284</v>
       </c>
     </row>
     <row r="6">
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265832</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846314</v>
+        <v>74.81755514382759</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
-        <v>187.5255871663202</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W6" t="n">
-        <v>115.115762990344</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>88.38317822261155</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>36.43383855780554</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C8" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>165.1725371760942</v>
       </c>
       <c r="E8" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>165.1725371760946</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>124.0375532366286</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>52.2159462544348</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>307.9492910885705</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>346.9316837919556</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541850867</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034759</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>28.28675945117805</v>
       </c>
       <c r="X13" t="n">
-        <v>20.95866062610851</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>68.90171938503772</v>
       </c>
       <c r="D14" t="n">
-        <v>99.50249420969709</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247498</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>53.42628131784893</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>212.2293408749846</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>328.3712303094039</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>152.593887404146</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>62.44097469465961</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>29.25105537525278</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2140,16 +2140,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>231.8420908016143</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>214.6609491381282</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>133.9904401284375</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>68.34046582263178</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>33.78298043858066</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>191.1636752873184</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>54.51165059784277</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>76.2838035461409</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>52.98455791795016</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2614,16 +2614,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>285.99082894526</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>68.02930569165359</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>238.1138357058008</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>240.2451530332447</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>108.9812949757272</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247742</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>124.4272108043268</v>
+        <v>97.01188539214105</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>191.1326684784325</v>
       </c>
       <c r="E32" t="n">
-        <v>376.649133187184</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3161,7 +3161,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U33" t="n">
         <v>225.7871683969286</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>20.95866062610961</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>80.77366170817064</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>256.3752374753448</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>194.1708171770717</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>20.95866062610959</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>13.47236379656314</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>88.01624809068203</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>178.647843195296</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>20.95866062610959</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>53.54735467376835</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>138.0957464459787</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>173.5578851713674</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>203.5133085650805</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>54.51165059784275</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>200.1365534425741</v>
       </c>
       <c r="X44" t="n">
-        <v>251.9459179647298</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>97.01188539214075</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>194.6493049874282</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204.4218319897903</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>141.3070323458395</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>271.1217663066255</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>523.2361246735305</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487947</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="X2" t="n">
-        <v>371.26277863231</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.26277863231</v>
+        <v>160.0771049282165</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>431.9158668530686</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>550.1875401335673</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>509.310657927099</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>509.310657927099</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487947</v>
+        <v>360.9812426859792</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487947</v>
+        <v>360.9812426859792</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487947</v>
+        <v>212.6518274448593</v>
       </c>
       <c r="W3" t="n">
-        <v>371.26277863231</v>
+        <v>64.32241220373947</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158252</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.8416170062758</v>
+        <v>161.728413768076</v>
       </c>
       <c r="C5" t="n">
-        <v>393.8416170062758</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D5" t="n">
-        <v>393.8416170062758</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E5" t="n">
-        <v>393.8416170062758</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897907</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058939</v>
+        <v>64.08111238184307</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079186</v>
+        <v>163.9284927306049</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644759</v>
+        <v>306.6973793432473</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123835</v>
+        <v>456.390224180391</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985593</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020275</v>
+        <v>659.1628932295217</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652808</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652808</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652808</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="T5" t="n">
-        <v>560.6825636487957</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="U5" t="n">
-        <v>560.6825636487957</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="V5" t="n">
-        <v>560.6825636487957</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="W5" t="n">
-        <v>560.6825636487957</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="X5" t="n">
-        <v>560.6825636487957</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.8416170062758</v>
+        <v>161.728413768076</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.53661367296049</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C6" t="n">
-        <v>30.53661367296049</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D6" t="n">
-        <v>30.53661367296049</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E6" t="n">
-        <v>30.53661367296049</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F6" t="n">
-        <v>30.53661367296049</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G6" t="n">
-        <v>30.53661367296049</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H6" t="n">
-        <v>30.53661367296049</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I6" t="n">
-        <v>30.53661367296049</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024196</v>
+        <v>59.33472114872545</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>167.499352853669</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140247</v>
+        <v>313.0792444295232</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546606</v>
+        <v>476.9208474646505</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476359</v>
+        <v>578.3521085265271</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017073</v>
+        <v>661.4800654501</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652808</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R6" t="n">
-        <v>676.9378076264292</v>
+        <v>591.5564187692454</v>
       </c>
       <c r="S6" t="n">
-        <v>525.6547321810256</v>
+        <v>439.5527270846222</v>
       </c>
       <c r="T6" t="n">
-        <v>336.2349471645405</v>
+        <v>271.085629409543</v>
       </c>
       <c r="U6" t="n">
-        <v>336.2349471645405</v>
+        <v>271.085629409543</v>
       </c>
       <c r="V6" t="n">
-        <v>336.2349471645405</v>
+        <v>102.6185317344638</v>
       </c>
       <c r="W6" t="n">
-        <v>219.9563986894456</v>
+        <v>102.6185317344638</v>
       </c>
       <c r="X6" t="n">
-        <v>219.9563986894456</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.53661367296049</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702829027</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230187</v>
+        <v>20.64084305584018</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170739</v>
+        <v>31.59410626612424</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396366</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702829027</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702829027</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702829027</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702829027</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702829027</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702829027</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>583.2614020227609</v>
+        <v>181.842993615825</v>
       </c>
       <c r="C8" t="n">
-        <v>393.8416170062758</v>
+        <v>181.842993615825</v>
       </c>
       <c r="D8" t="n">
-        <v>393.8416170062758</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E8" t="n">
-        <v>204.4218319897907</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897907</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G8" t="n">
-        <v>204.4218319897907</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J8" t="n">
         <v>21.03371160678489</v>
@@ -4810,46 +4810,46 @@
         <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123835</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985592</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652808</v>
+        <v>560.682563648794</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652808</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="W8" t="n">
-        <v>750.1023486652808</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="X8" t="n">
-        <v>750.1023486652808</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="Y8" t="n">
-        <v>583.2614020227609</v>
+        <v>371.2627786323095</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>181.8429936158255</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330562</v>
+        <v>424.3662439387479</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330562</v>
+        <v>424.3662439387479</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330562</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330562</v>
+        <v>152.5412281508564</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024228</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140249</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546608</v>
+        <v>512.5000587546596</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476356</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017072</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652807</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652807</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652807</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="T9" t="n">
-        <v>560.6825636487956</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="U9" t="n">
-        <v>371.2627786323105</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="V9" t="n">
-        <v>181.8429936158255</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="W9" t="n">
-        <v>181.8429936158255</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="X9" t="n">
-        <v>181.8429936158255</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="Y9" t="n">
-        <v>181.8429936158255</v>
+        <v>598.8192732198748</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230187</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170739</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396366</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="U10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>1501.213961756482</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1501.213961756482</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1501.213961756482</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218338</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993391</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.628073993391</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V11" t="n">
-        <v>3119.628073993391</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W11" t="n">
-        <v>2769.192029759092</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X11" t="n">
-        <v>2395.726271498012</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y11" t="n">
-        <v>2005.586939522201</v>
+        <v>1887.813801820604</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811061</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999791</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387279</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332724</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601574</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927755</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125854</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619334</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
         <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431605</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199862</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471661</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266128</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501174</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218338</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218338</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218338</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218338</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218338</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962276</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K13" t="n">
-        <v>176.645724237293</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596501</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588477</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886951</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068846</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596431</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181838</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U13" t="n">
-        <v>631.7841389438273</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="V13" t="n">
-        <v>377.0996507379405</v>
+        <v>444.4359021818234</v>
       </c>
       <c r="W13" t="n">
-        <v>87.68248070097985</v>
+        <v>415.8634178877041</v>
       </c>
       <c r="X13" t="n">
-        <v>66.51211643218338</v>
+        <v>415.8634178877041</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51211643218338</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796243</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C14" t="n">
-        <v>552.8079389392126</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D14" t="n">
-        <v>452.3003690304276</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E14" t="n">
-        <v>66.51211643218339</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218339</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
         <v>66.51211643218339</v>
@@ -5278,19 +5278,19 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912086</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939507</v>
@@ -5302,13 +5302,13 @@
         <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
         <v>2755.806928794323</v>
@@ -5320,10 +5320,10 @@
         <v>2071.975386180638</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919558</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943746</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811061</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999791</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387279</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332724</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601574</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927755</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064296</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218339</v>
@@ -5360,49 +5360,49 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125854</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619334</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431605</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199862</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471661</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266128</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501174</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.2351809199101</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C16" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E16" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F16" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218339</v>
@@ -5436,52 +5436,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962276</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K16" t="n">
-        <v>176.645724237293</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596501</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588477</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886951</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068846</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596431</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S16" t="n">
-        <v>729.2011216450101</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T16" t="n">
-        <v>729.2011216450101</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U16" t="n">
-        <v>675.2351809199101</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V16" t="n">
-        <v>675.2351809199101</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W16" t="n">
-        <v>675.2351809199101</v>
+        <v>631.4698357812235</v>
       </c>
       <c r="X16" t="n">
-        <v>675.2351809199101</v>
+        <v>417.09676419033</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.2351809199101</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1477.112184968822</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C17" t="n">
-        <v>1108.149668028411</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>749.8839694216604</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>364.0957168234162</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5533,34 +5533,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993391</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.097597267228</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923657</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653543</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.800296392463</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y17" t="n">
-        <v>1808.800296392463</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="18">
@@ -5585,22 +5585,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,7 +5612,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>234.2149530574644</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C19" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181845</v>
+        <v>857.8153142074176</v>
       </c>
       <c r="V19" t="n">
-        <v>666.2025176122977</v>
+        <v>603.1308260015307</v>
       </c>
       <c r="W19" t="n">
-        <v>666.2025176122977</v>
+        <v>603.1308260015307</v>
       </c>
       <c r="X19" t="n">
-        <v>636.6559970312343</v>
+        <v>603.1308260015307</v>
       </c>
       <c r="Y19" t="n">
-        <v>415.8634178877041</v>
+        <v>382.3382468580007</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1619.798686923957</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C20" t="n">
-        <v>1250.836169983545</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
         <v>892.5704713767946</v>
@@ -5755,13 +5755,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5788,16 +5788,16 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066531</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W20" t="n">
-        <v>2396.53785896389</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X20" t="n">
-        <v>2396.53785896389</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y20" t="n">
-        <v>2006.398526988078</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5819,46 +5819,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>517.4719255574712</v>
+        <v>450.1356741135887</v>
       </c>
       <c r="C22" t="n">
-        <v>517.4719255574712</v>
+        <v>450.1356741135887</v>
       </c>
       <c r="D22" t="n">
-        <v>382.1280466398576</v>
+        <v>450.1356741135887</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
         <v>234.2149530574645</v>
@@ -5940,22 +5940,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V22" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W22" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X22" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y22" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1590.514489367197</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C23" t="n">
-        <v>1221.551972426786</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3291.481598943938</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3291.481598943938</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>3037.951122217774</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2706.888234874203</v>
+        <v>2673.002975764887</v>
       </c>
       <c r="W23" t="n">
-        <v>2354.119579604089</v>
+        <v>2320.234320494773</v>
       </c>
       <c r="X23" t="n">
-        <v>1980.653821343009</v>
+        <v>2320.234320494773</v>
       </c>
       <c r="Y23" t="n">
-        <v>1590.514489367197</v>
+        <v>1930.094988518961</v>
       </c>
     </row>
     <row r="24">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.5743897633377</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C25" t="n">
-        <v>121.5743897633377</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D25" t="n">
-        <v>121.5743897633377</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
         <v>66.51211643218342</v>
@@ -6180,19 +6180,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>342.3669689068678</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X25" t="n">
-        <v>342.3669689068678</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y25" t="n">
-        <v>121.5743897633377</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2012.898941548397</v>
+        <v>1133.32083113111</v>
       </c>
       <c r="C26" t="n">
-        <v>1643.936424607986</v>
+        <v>764.3583141906979</v>
       </c>
       <c r="D26" t="n">
-        <v>1285.670726001235</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
         <v>406.0926155839475</v>
@@ -6229,7 +6229,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>2755.806928794324</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2403.038273524209</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>2403.038273524209</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y26" t="n">
-        <v>2012.898941548397</v>
+        <v>1519.920671195231</v>
       </c>
     </row>
     <row r="27">
@@ -6284,22 +6284,22 @@
         <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
         <v>66.5121164321834</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.3679798527295</v>
+        <v>449.8213709509845</v>
       </c>
       <c r="C28" t="n">
-        <v>511.4317969248226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D28" t="n">
-        <v>361.3151575124868</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6420,16 +6420,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>680.3679798527295</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>680.3679798527295</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X28" t="n">
-        <v>680.3679798527295</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y28" t="n">
-        <v>680.3679798527295</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1422.200456328342</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C29" t="n">
-        <v>1053.23793938793</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D29" t="n">
-        <v>694.9722407811798</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E29" t="n">
-        <v>309.1839881829356</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>66.5121164321834</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923658</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.266054653544</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X29" t="n">
-        <v>1808.800296392464</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y29" t="n">
-        <v>1808.800296392464</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
         <v>85.51940803064545</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>385.564938772426</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C31" t="n">
-        <v>216.6287558445191</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E31" t="n">
         <v>66.5121164321834</v>
@@ -6651,22 +6651,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>795.2029545006831</v>
+        <v>822.8952023917798</v>
       </c>
       <c r="U31" t="n">
-        <v>795.2029545006831</v>
+        <v>822.8952023917798</v>
       </c>
       <c r="V31" t="n">
-        <v>795.2029545006831</v>
+        <v>822.8952023917798</v>
       </c>
       <c r="W31" t="n">
-        <v>795.2029545006831</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="X31" t="n">
-        <v>567.2134036026657</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="Y31" t="n">
-        <v>567.2134036026657</v>
+        <v>533.4780323548191</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1517.887535471215</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C32" t="n">
-        <v>1517.887535471215</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D32" t="n">
-        <v>1159.621836864464</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E32" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X32" t="n">
-        <v>1904.487375535336</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y32" t="n">
-        <v>1904.487375535336</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.68248070098099</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="C34" t="n">
-        <v>87.68248070098099</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U34" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V34" t="n">
-        <v>377.0996507379416</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W34" t="n">
-        <v>87.68248070098099</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X34" t="n">
-        <v>87.68248070098099</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.68248070098099</v>
+        <v>839.2974485372046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1480.516858765518</v>
+        <v>2201.7190780849</v>
       </c>
       <c r="C35" t="n">
-        <v>1480.516858765518</v>
+        <v>1832.756561144488</v>
       </c>
       <c r="D35" t="n">
-        <v>1122.251160158767</v>
+        <v>1474.490862537737</v>
       </c>
       <c r="E35" t="n">
-        <v>736.462907560523</v>
+        <v>1088.702609939493</v>
       </c>
       <c r="F35" t="n">
-        <v>325.4770027709155</v>
+        <v>677.7167051498857</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>262.6442549948821</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6961,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.721789066531</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W35" t="n">
-        <v>2630.721789066531</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X35" t="n">
-        <v>2257.256030805451</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y35" t="n">
-        <v>1867.11669882964</v>
+        <v>2588.318918149022</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.68248070098099</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="C37" t="n">
-        <v>87.68248070098099</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D37" t="n">
-        <v>87.68248070098099</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E37" t="n">
-        <v>87.68248070098099</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
@@ -7119,28 +7119,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U37" t="n">
-        <v>631.7841389438285</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V37" t="n">
-        <v>377.0996507379416</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="W37" t="n">
-        <v>87.68248070098099</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="X37" t="n">
-        <v>87.68248070098099</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.68248070098099</v>
+        <v>528.3452334219998</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1278.358723975039</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C38" t="n">
-        <v>1278.358723975039</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810553</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410102</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="V38" t="n">
-        <v>2781.332309546166</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="W38" t="n">
-        <v>2428.563654276052</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="X38" t="n">
-        <v>2055.097896014972</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.958564039161</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="39">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.68248070098099</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>87.68248070098099</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>87.68248070098099</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>87.68248070098099</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
         <v>66.51211643218342</v>
@@ -7362,22 +7362,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U40" t="n">
-        <v>631.7841389438285</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V40" t="n">
-        <v>377.0996507379416</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W40" t="n">
-        <v>87.68248070098099</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="X40" t="n">
-        <v>87.68248070098099</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.68248070098099</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1647.321240915451</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C41" t="n">
-        <v>1278.358723975039</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E41" t="n">
         <v>892.5704713767946</v>
@@ -7402,37 +7402,37 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V41" t="n">
-        <v>3150.294826486578</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W41" t="n">
-        <v>2797.526171216464</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X41" t="n">
-        <v>2424.060412955384</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y41" t="n">
-        <v>2033.921080979572</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
@@ -7578,43 +7578,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>523.6321230944251</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>523.6321230944251</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V43" t="n">
-        <v>523.6321230944251</v>
+        <v>576.7218656126742</v>
       </c>
       <c r="W43" t="n">
-        <v>234.2149530574645</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X43" t="n">
-        <v>234.2149530574645</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1246.723135529484</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C44" t="n">
-        <v>877.7606185890727</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D44" t="n">
-        <v>519.4949199823222</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>519.4949199823222</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7681,19 +7681,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796418</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X44" t="n">
-        <v>2023.462307569418</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y44" t="n">
-        <v>1633.322975593606</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.4020639300938</v>
+        <v>631.469835781224</v>
       </c>
       <c r="C46" t="n">
-        <v>213.4020639300938</v>
+        <v>462.5336528533171</v>
       </c>
       <c r="D46" t="n">
-        <v>213.4020639300938</v>
+        <v>312.4170134409813</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>164.5039198585882</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T46" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U46" t="n">
-        <v>410.0175235133546</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V46" t="n">
-        <v>213.4020639300938</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W46" t="n">
-        <v>213.4020639300938</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X46" t="n">
-        <v>213.4020639300938</v>
+        <v>631.469835781224</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.4020639300938</v>
+        <v>631.469835781224</v>
       </c>
     </row>
   </sheetData>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.5613044873861</v>
+        <v>235.8877205747719</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>219.8989052624785</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>222.8849795897604</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>239.391817567345</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681384</v>
+        <v>48.87899782081595</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>85.95446606071664</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>104.848862072211</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>153.7240099120011</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.51015860120992</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22707,7 +22707,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>115.0308748441934</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,28 +22743,28 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>230.7235842710633</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>218.37093033512</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753912</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637378</v>
+        <v>413.1696173863946</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973038</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.0817190166637</v>
+        <v>81.59093052713874</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>25.91829388988657</v>
+        <v>213.75811620057</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>84.39257659920884</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>182.4585420190846</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>221.0654014799588</v>
+        <v>219.4555119577252</v>
       </c>
     </row>
     <row r="6">
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409147</v>
+        <v>60.22693649632168</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>19.00792621918457</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,22 +22916,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681015</v>
+        <v>28.78198192262309</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>66.01816045109686</v>
       </c>
       <c r="W6" t="n">
-        <v>136.5792201705756</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>117.3898069808659</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.15710861098415</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22944,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>115.030874844193</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318195</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708666</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825412</v>
+        <v>59.3465326483775</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402845</v>
+        <v>17.84535296940157</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3.210952374594797</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709379</v>
+        <v>22.00204076308472</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.6860405515972</v>
+        <v>71.38234319379296</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>187.4234163286502</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971609</v>
       </c>
       <c r="C8" t="n">
-        <v>177.7473046046873</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>189.5105044445887</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059416</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23038,10 +23038,10 @@
         <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>129.3682389399021</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.0817190166637</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T8" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871069</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038153</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>221.0654014799588</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>7.535961812221103</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>33.60752721877232</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846314</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681015</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377072</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310506</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23196,16 +23196,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825412</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402845</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709379</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.6860405515972</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23232,7 +23232,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>171.5037272356653</v>
+        <v>171.5037272356661</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>73.98107898369125</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.309284925457405</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.486899575160351e-12</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-12</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>258.2362388854129</v>
       </c>
       <c r="X13" t="n">
-        <v>204.7509947629287</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>296.3711723859698</v>
       </c>
       <c r="D14" t="n">
-        <v>255.1805474109859</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.497557716196752e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>232.785556887764</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>13.48031451405254</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>54.36261135407671</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>175.1583710659889</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23946,7 +23946,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>223.7708635109533</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>196.4586000137844</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>117.3988779157987</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>155.0701515403409</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>14.6250328897749</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>78.09349682393739</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24223,10 +24223,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>75.40478134959517</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>136.5885831828165</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>91.92231204872641</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24420,16 +24420,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>210.2391947904501</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>328.9458121543116</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>100.2471097107936</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>99.21751540697424</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24660,10 +24660,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>14.02380761802718</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>166.6308927084668</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>277.2566436803264</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>95.12173847184239</v>
+        <v>122.5370638840281</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>163.5503731422504</v>
       </c>
       <c r="E32" t="n">
-        <v>5.28123688507776</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>127.6568123921028</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25131,19 +25131,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>137.8109916439242</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>154.5464881781087</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>100.4369472102487</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>124.4623873968217</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>238.6652795272649</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>115.9017220489381</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>149.1044152748389</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>124.4623873968217</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25602,19 +25602,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1623007152688</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>216.5872951747042</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>154.1943732987675</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,16 +25836,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>16.03564071108872</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>197.6259927259852</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>149.1044152748389</v>
       </c>
       <c r="X44" t="n">
-        <v>117.7851827137392</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>48.40916263079049</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>57.48833833639981</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337677</v>
+        <v>402256.5418769752</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337679</v>
+        <v>417888.8482179075</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337679</v>
+        <v>433263.0758337674</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855506.5411587486</v>
+        <v>855506.5411587487</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>139242.6491112606</v>
+      </c>
+      <c r="C2" t="n">
+        <v>144653.8320754294</v>
+      </c>
+      <c r="D2" t="n">
         <v>149975.680096304</v>
       </c>
-      <c r="C2" t="n">
-        <v>149975.6800963042</v>
-      </c>
-      <c r="D2" t="n">
-        <v>149975.6800963041</v>
-      </c>
       <c r="E2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="F2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="G2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="H2" t="n">
         <v>296136.8796318745</v>
-      </c>
-      <c r="F2" t="n">
-        <v>296136.8796318744</v>
-      </c>
-      <c r="G2" t="n">
-        <v>296136.8796318744</v>
-      </c>
-      <c r="H2" t="n">
-        <v>296136.8796318744</v>
       </c>
       <c r="I2" t="n">
         <v>296136.8796318745</v>
@@ -26340,22 +26340,22 @@
         <v>296136.8796318746</v>
       </c>
       <c r="K2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="L2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="M2" t="n">
         <v>296136.8796318744</v>
-      </c>
-      <c r="L2" t="n">
-        <v>296136.8796318744</v>
-      </c>
-      <c r="M2" t="n">
-        <v>296136.8796318746</v>
       </c>
       <c r="N2" t="n">
         <v>296136.8796318745</v>
       </c>
       <c r="O2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="P2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10570385408937e-10</v>
+        <v>23320.45473340651</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.84085679036</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336667</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>38421.40650613405</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136623</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004455</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678772</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.800118072334</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723343</v>
+        <v>122.1898065383437</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723343</v>
+        <v>137.8001180723338</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061227</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="F4" t="n">
         <v>584.6469890061228</v>
       </c>
       <c r="G4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26459,7 +26459,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161359</v>
+        <v>55335.34872138573</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26499,10 +26499,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510698.884973262</v>
+        <v>-458518.1319426713</v>
       </c>
       <c r="C6" t="n">
-        <v>80658.01754758327</v>
+        <v>64626.86678985719</v>
       </c>
       <c r="D6" t="n">
-        <v>80658.01754758356</v>
+        <v>69896.83250792428</v>
       </c>
       <c r="E6" t="n">
-        <v>-409962.7469303612</v>
+        <v>-406296.1510900093</v>
       </c>
       <c r="F6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="G6" t="n">
-        <v>217171.896703305</v>
+        <v>220838.4925436579</v>
       </c>
       <c r="H6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="I6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="J6" t="n">
-        <v>168106.951974761</v>
+        <v>182417.0860375242</v>
       </c>
       <c r="K6" t="n">
-        <v>217171.8967033053</v>
+        <v>215707.5254415216</v>
       </c>
       <c r="L6" t="n">
-        <v>217171.8967033054</v>
+        <v>215588.5853176539</v>
       </c>
       <c r="M6" t="n">
-        <v>56715.45483542838</v>
+        <v>60382.05067578079</v>
       </c>
       <c r="N6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="O6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.492543658</v>
       </c>
       <c r="P6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436582</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129049</v>
+        <v>530.6136320241912</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663202</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26819,19 +26819,19 @@
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>18.53676886697042</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.85630888871299</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803927</v>
+        <v>541.3067596803936</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.74316046799123</v>
       </c>
       <c r="E4" t="n">
-        <v>643.875868235972</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799157</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359721</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799123</v>
       </c>
       <c r="M4" t="n">
-        <v>643.875868235972</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>171.5470783449032</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077003</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>21.8458165184633</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043124</v>
+        <v>82.23711376326689</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655545</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>336.6223547162113</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470276</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622682</v>
+        <v>359.4067440913204</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151094</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619226</v>
+        <v>48.60847493367341</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924586</v>
+        <v>9.337733363561393</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590853</v>
+        <v>39.29544350367832</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340084</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621738</v>
+        <v>184.298132926742</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405034</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975332</v>
+        <v>289.1844294531842</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829656</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292675</v>
+        <v>245.0520636988653</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>217.9420406704645</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936716</v>
+        <v>145.68848251351</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550081</v>
+        <v>70.86194882013636</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820373</v>
+        <v>4.600320073870109</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07508683472040445</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.956844254469853</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620021</v>
+        <v>8.507215280650154</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639164</v>
+        <v>28.77491630714795</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114199</v>
+        <v>67.64888879101861</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682167</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784864</v>
+        <v>80.12265843565288</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647913</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147604</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181397</v>
+        <v>4.088334541825734</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622682</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590853</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639164</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095019</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026437</v>
@@ -31846,34 +31846,34 @@
         <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.9375967297389</v>
@@ -31925,31 +31925,31 @@
         <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780294</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095019</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099072</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
@@ -32083,34 +32083,34 @@
         <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.9375967297389</v>
@@ -32162,31 +32162,31 @@
         <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32475,7 +32475,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003805</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
         <v>691.3565293623194</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>37.57267093057298</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868166</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.3822424078835</v>
+        <v>51.25102853128971</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973022</v>
+        <v>100.8559397462241</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197549</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405815</v>
+        <v>129.3085326696337</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916007</v>
+        <v>75.5123451577706</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406599</v>
+        <v>8.047286428072653</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781481</v>
+        <v>46.45669395238301</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>147.0503955311659</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996323</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848231</v>
+        <v>102.4558192544208</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855708</v>
+        <v>83.96763325613429</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765005</v>
+        <v>5.706708427488508</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646086</v>
+        <v>7.371968606034244</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061163</v>
+        <v>11.06390223261016</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520835</v>
+        <v>18.73772222104904</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400609</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K8" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973022</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405815</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916007</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855708</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646086</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061163</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520835</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400609</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
         <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013289</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127269</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.9421752903428</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K13" t="n">
-        <v>99.3038931996669</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286435</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.123718484038</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230781</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567571</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106919</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014208</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
         <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882205</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013289</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127269</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.9421752903428</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K16" t="n">
-        <v>99.3038931996669</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286435</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.123718484038</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230781</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567571</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106919</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014208</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865553999</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
